--- a/code/excels/abilities/boss_abilities.xlsx
+++ b/code/excels/abilities/boss_abilities.xlsx
@@ -3021,10 +3021,10 @@
   <sheetPr/>
   <dimension ref="A1:CI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AS23" sqref="AS23"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3032,9 +3032,9 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="22.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="19.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="41.9583333333333" customWidth="1"/>
     <col min="5" max="6" width="21.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="26.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="44.0083333333333" customWidth="1"/>
     <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="26.4166666666667" customWidth="1"/>
@@ -9575,7 +9575,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A2:D2 L2 N2 AD2:CI2 P2:AB2 P1:CI1 G2:J2 G1:N1" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:N1 G2:J2 P1:CI1 P2:AB2 AD2:CI2 N2 L2 A2:D2 A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10707,7 +10707,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D4:F4 A4:B4 A3:F3 C2:F2 A2 A1:F1 R1:CN4 I1:P4" numberStoredAsText="1"/>
+    <ignoredError sqref="I1:P4 R1:CN4 A1:F1 A2 C2:F2 A3:F3 A4:B4 D4:F4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
